--- a/data/input/必要物フィルタのための入力データ.xlsx
+++ b/data/input/必要物フィルタのための入力データ.xlsx
@@ -438,7 +438,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -458,7 +458,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="7" s="5">
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +530,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>医療ガス,電気,水</t>
+          <t>職員</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>医療品,水,衛生資器材</t>
+          <t>電気,医療ガス,衛生資器材</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>職員,医療ガス</t>
+          <t>水,電気</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>職員,医療ガス,衛生資器材</t>
+          <t>医療ガス</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>衛生資器材,医療ガス,医療品</t>
+          <t>医療品,医療ガス</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>医療ガス,水,衛生資器材</t>
+          <t>医療品,医療ガス,水</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>電気,医療ガス,医療品</t>
+          <t>医療ガス,水,職員</t>
         </is>
       </c>
     </row>
